--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/87212562/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/87212562/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9954284429550171</v>
+        <v>0.9889364838600159</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9943752288818359</v>
+        <v>0.6026782393455505</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8982542753219604</v>
+        <v>0.8666076064109802</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9954606890678406</v>
+        <v>0.988946259021759</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9954624772071838</v>
+        <v>0.9889517426490784</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9954535961151123</v>
+        <v>0.9889582395553589</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9953497648239136</v>
+        <v>0.9872663617134094</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9954535961151123</v>
+        <v>0.9889582395553589</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.898931622505188</v>
+        <v>0.8658707737922668</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9954642653465271</v>
+        <v>0.9889582395553589</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9763064980506897</v>
+        <v>0.9586880803108215</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9954674243927002</v>
+        <v>0.9889274835586548</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9954357743263245</v>
+        <v>0.9889400601387024</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9954586029052734</v>
+        <v>0.9889457821846008</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9954565763473511</v>
+        <v>0.9886681437492371</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6795140504837036</v>
+        <v>0.6008174419403076</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9954568147659302</v>
+        <v>0.9889585971832275</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9954500794410706</v>
+        <v>0.9887979626655579</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9954374432563782</v>
+        <v>0.9888643026351929</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9954544305801392</v>
+        <v>0.9889290928840637</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9954634308815002</v>
+        <v>0.9889664053916931</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9954646229743958</v>
+        <v>0.9889604449272156</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8983017206192017</v>
+        <v>0.8668067455291748</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6806662082672119</v>
+        <v>0.6028333306312561</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9954350590705872</v>
+        <v>0.988922119140625</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.995451033115387</v>
+        <v>0.9888732433319092</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9954589605331421</v>
+        <v>0.9889412522315979</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9954550266265869</v>
+        <v>0.9889245629310608</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9954598546028137</v>
+        <v>0.9889459013938904</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9612838625907898</v>
+        <v>0.9414124488830566</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.977047324180603</v>
+        <v>0.9586407542228699</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9752568006515503</v>
+        <v>0.9586403369903564</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9954620003700256</v>
+        <v>0.9889468550682068</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9756417870521545</v>
+        <v>0.9586970806121826</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9954643845558167</v>
+        <v>0.9889702796936035</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9751430749893188</v>
+        <v>0.9582507014274597</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8651529550552368</v>
+        <v>0.8957101702690125</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.995445728302002</v>
+        <v>0.9889633655548096</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9096284508705139</v>
+        <v>0.9582003355026245</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9598563313484192</v>
+        <v>0.9407433271408081</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9771685600280762</v>
+        <v>0.9587554931640625</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9607482552528381</v>
+        <v>0.9414246082305908</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9601970911026001</v>
+        <v>0.9422022104263306</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8979007601737976</v>
+        <v>0.8669871687889099</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9606873989105225</v>
+        <v>0.9411971569061279</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9954620003700256</v>
+        <v>0.9890000224113464</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9603639245033264</v>
+        <v>0.9413297176361084</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9602971076965332</v>
+        <v>0.9383646845817566</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9954474568367004</v>
+        <v>0.9889384508132935</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9603639245033264</v>
+        <v>0.9413297176361084</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9601028561592102</v>
+        <v>0.9380730986595154</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9954617619514465</v>
+        <v>0.9889512658119202</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9954550266265869</v>
+        <v>0.9889739751815796</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9954600930213928</v>
+        <v>0.9889518618583679</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9757271409034729</v>
+        <v>0.9587403535842896</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9954513907432556</v>
+        <v>0.9890106320381165</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9954339861869812</v>
+        <v>0.9889374971389771</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9954348206520081</v>
+        <v>0.9889683127403259</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9954637885093689</v>
+        <v>0.9889640808105469</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9768224358558655</v>
+        <v>0.9586914777755737</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9766663908958435</v>
+        <v>0.5444272756576538</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.975274384021759</v>
+        <v>0.9586759209632874</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.975274384021759</v>
+        <v>0.9586759209632874</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9768711924552917</v>
+        <v>0.958742082118988</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.975274384021759</v>
+        <v>0.9586759209632874</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9299729466438293</v>
+        <v>0.9035437107086182</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9954624772071838</v>
+        <v>0.9889553189277649</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9769349098205566</v>
+        <v>0.9586419463157654</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9954138398170471</v>
+        <v>0.9888972640037537</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9750057458877563</v>
+        <v>0.9586803913116455</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9954656958580017</v>
+        <v>0.9889284372329712</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9954604506492615</v>
+        <v>0.9889428615570068</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9750057458877563</v>
+        <v>0.9586803913116455</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9954527020454407</v>
+        <v>0.9889243245124817</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9750057458877563</v>
+        <v>0.9586803913116455</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9954621195793152</v>
+        <v>0.9889583587646484</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9752614498138428</v>
+        <v>0.9588292241096497</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9954434633255005</v>
+        <v>0.9889312386512756</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9752614498138428</v>
+        <v>0.9588292241096497</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9953828454017639</v>
+        <v>0.9886133670806885</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9953828454017639</v>
+        <v>0.9886133670806885</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9954621195793152</v>
+        <v>0.9889510273933411</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9749259352684021</v>
+        <v>0.9587595462799072</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9953938722610474</v>
+        <v>0.9889666438102722</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9754074215888977</v>
+        <v>0.958783745765686</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9954437017440796</v>
+        <v>0.9889265298843384</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9954646229743958</v>
+        <v>0.9889219999313354</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9954614043235779</v>
+        <v>0.9889253973960876</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9954637885093689</v>
+        <v>0.9889222383499146</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.995456337928772</v>
+        <v>0.9889227151870728</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9954575300216675</v>
+        <v>0.9889242053031921</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9954612851142883</v>
+        <v>0.9889229536056519</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9954622387886047</v>
+        <v>0.9889765381813049</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5816080570220947</v>
+        <v>0.6435419917106628</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9954440593719482</v>
+        <v>0.9889968633651733</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9954320192337036</v>
+        <v>0.9585374593734741</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9954665899276733</v>
+        <v>0.9888577461242676</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.995458722114563</v>
+        <v>0.9889612793922424</v>
       </c>
     </row>
     <row r="102">
@@ -3283,14 +3283,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8974470496177673</v>
+        <v>0.9578105211257935</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9617308378219604</v>
+        <v>0.68613600730896</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9954596161842346</v>
+        <v>0.9889391660690308</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9297367334365845</v>
+        <v>0.9036982655525208</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9954677820205688</v>
+        <v>0.9888417720794678</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9591701626777649</v>
+        <v>0.9394157528877258</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.897942066192627</v>
+        <v>0.8672530055046082</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9954276084899902</v>
+        <v>0.9888955354690552</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9610796570777893</v>
+        <v>0.9413855075836182</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9606117010116577</v>
+        <v>0.9405287504196167</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9746329188346863</v>
+        <v>0.9587388038635254</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9954627156257629</v>
+        <v>0.9889707565307617</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9755949378013611</v>
+        <v>0.9586776494979858</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.995392918586731</v>
+        <v>0.9866944551467896</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.995411217212677</v>
+        <v>0.9887725710868835</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.898493230342865</v>
+        <v>0.714272141456604</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9954055547714233</v>
+        <v>0.9889695644378662</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9300009608268738</v>
+        <v>0.9038889408111572</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9954451322555542</v>
+        <v>0.9890030026435852</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9300009608268738</v>
+        <v>0.9038889408111572</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9954451322555542</v>
+        <v>0.9890030026435852</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9300009608268738</v>
+        <v>0.9038889408111572</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9954598546028137</v>
+        <v>0.9889856576919556</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8981091380119324</v>
+        <v>0.957404613494873</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.995448887348175</v>
+        <v>0.9889483451843262</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9953014850616455</v>
+        <v>0.9856775999069214</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9954590797424316</v>
+        <v>0.9887891411781311</v>
       </c>
     </row>
     <row r="132">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.897716224193573</v>
+        <v>0.9402883648872375</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9954577684402466</v>
+        <v>0.9889538288116455</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9954458475112915</v>
+        <v>0.988923192024231</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9954623579978943</v>
+        <v>0.9889539480209351</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9953802824020386</v>
+        <v>0.9886236190795898</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9954600930213928</v>
+        <v>0.9889405369758606</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.995456337928772</v>
+        <v>0.988787829875946</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9954555034637451</v>
+        <v>0.9887962341308594</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9954546689987183</v>
+        <v>0.9889149069786072</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8924052119255066</v>
+        <v>0.7071533799171448</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.975923478603363</v>
+        <v>0.9584099650382996</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9954600930213928</v>
+        <v>0.9889354109764099</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.975923478603363</v>
+        <v>0.9584099650382996</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9954351782798767</v>
+        <v>0.9886614084243774</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9299729466438293</v>
+        <v>0.9035437107086182</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9954680204391479</v>
+        <v>0.9888829588890076</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9586722850799561</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9226784706115723</v>
+        <v>0.9039872884750366</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8981202840805054</v>
+        <v>0.8675119280815125</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9954584836959839</v>
+        <v>0.988966166973114</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8978307843208313</v>
+        <v>0.8670740127563477</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9954612851142883</v>
+        <v>0.9889617562294006</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8978036046028137</v>
+        <v>0.8670215010643005</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9954597353935242</v>
+        <v>0.9889369010925293</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8978110551834106</v>
+        <v>0.867032527923584</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9954413175582886</v>
+        <v>0.9889529943466187</v>
       </c>
     </row>
     <row r="160">
@@ -4907,14 +4907,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9953439831733704</v>
+        <v>0.9588262438774109</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9954322576522827</v>
+        <v>0.9888890981674194</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9931301474571228</v>
+        <v>0.6436288952827454</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.995429515838623</v>
+        <v>0.9888046383857727</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9754338264465332</v>
+        <v>0.9587134122848511</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9954635500907898</v>
+        <v>0.9889639616012573</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9953833222389221</v>
+        <v>0.988694965839386</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9601342082023621</v>
+        <v>0.941189169883728</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8794699907302856</v>
+        <v>0.9343011379241943</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9601342082023621</v>
+        <v>0.941189169883728</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9523407816886902</v>
+        <v>0.9544396996498108</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9954556226730347</v>
+        <v>0.9889260530471802</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9954578876495361</v>
+        <v>0.9887874722480774</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9954522252082825</v>
+        <v>0.9888005256652832</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9954578876495361</v>
+        <v>0.9887874722480774</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9954578876495361</v>
+        <v>0.9887874722480774</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9954522252082825</v>
+        <v>0.9888005256652832</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9954653382301331</v>
+        <v>0.9888938069343567</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9954362511634827</v>
+        <v>0.9888907670974731</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.995460569858551</v>
+        <v>0.9889395833015442</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9954663515090942</v>
+        <v>0.9889487028121948</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9954600930213928</v>
+        <v>0.9889554381370544</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9299603700637817</v>
+        <v>0.9037042260169983</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9954615235328674</v>
+        <v>0.9889639616012573</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9954569339752197</v>
+        <v>0.9889543056488037</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9954537153244019</v>
+        <v>0.9889698028564453</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9954533576965332</v>
+        <v>0.9889599084854126</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.995465874671936</v>
+        <v>0.9888944625854492</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9954314231872559</v>
+        <v>0.988929808139801</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9954386353492737</v>
+        <v>0.9889304041862488</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5821892619132996</v>
+        <v>0.6461372971534729</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9954628348350525</v>
+        <v>0.9889504313468933</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9954558610916138</v>
+        <v>0.9889351725578308</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9298683404922485</v>
+        <v>0.9038634300231934</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9617719054222107</v>
+        <v>0.9015263319015503</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9954534769058228</v>
+        <v>0.9889677166938782</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9954656958580017</v>
+        <v>0.9889706373214722</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9954654574394226</v>
+        <v>0.9889827370643616</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.995460569858551</v>
+        <v>0.9889650344848633</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9579702019691467</v>
+        <v>0.9582007527351379</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9954615235328674</v>
+        <v>0.9889634847640991</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9954634308815002</v>
+        <v>0.9889525175094604</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.995457649230957</v>
+        <v>0.988938570022583</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9608952403068542</v>
+        <v>0.9414058923721313</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9954503178596497</v>
+        <v>0.9889897108078003</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9954293966293335</v>
+        <v>0.9887956380844116</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.579810619354248</v>
+        <v>0.6439557671546936</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9954262375831604</v>
+        <v>0.9888858795166016</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6770973205566406</v>
+        <v>0.6050177216529846</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9954598546028137</v>
+        <v>0.9889460206031799</v>
       </c>
     </row>
   </sheetData>
